--- a/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>423,31%</t>
+          <t>391,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>226,99%</t>
+          <t>430,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>281,84%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>144,7%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 6,94</t>
+          <t>2,99; 12,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,04</t>
+          <t>1,48; 8,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,69</t>
+          <t>1,28; 9,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 520,33</t>
+          <t>-0,03; 7,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,16; 2880,8</t>
+          <t>32,31; 2146,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,99; 989,9</t>
+          <t>-8,48; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,27; 778,14</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>148,81%</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>76,12%</t>
+          <t>140,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>90,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,56</t>
+          <t>-1,09; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,29</t>
+          <t>-1,67; 7,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 5,15</t>
+          <t>-10,01; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 692,99</t>
+          <t>-7,25; 4,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 408,07</t>
+          <t>-51,19; 1010,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 325,3</t>
+          <t>-47,74; 743,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-84,37; 185,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-90,31; 292,14</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-18,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-38,68%</t>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-74,94%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49,67%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,65</t>
+          <t>0,0; 14,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 9,52</t>
+          <t>-57,24; 9,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-5,87; 15,2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>116,01%</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>233,29%</t>
+          <t>285,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>216,09%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52,93%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,98</t>
+          <t>2,09; 7,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,47</t>
+          <t>1,12; 6,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,04</t>
+          <t>-10,54; 4,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 345,31</t>
+          <t>-1,65; 4,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,69; 696,0</t>
+          <t>44,17; 955,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 231,64</t>
+          <t>28,37; 807,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-73,61; 167,32</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-37,02; 258,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>391,07%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>430,42%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>281,84%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>144,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.31717190304737</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.895554494477993</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.64697669382601</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.341839778173083</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5.026993492573511</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.77439173522084</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.046621768455005</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.514976243455686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 12,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 8,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 9,13</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 7,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>32,31; 2146,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,48; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,47; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,27; 778,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.88628233726545</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.701326523308242</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.516901541866791</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1051660640840716</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.744786997830906</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.02503256860071082</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.07255293400193702</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1560904279229927</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.47663038232086</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.131318392522564</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.266648705872411</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.826385293810402</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>7.916075385151814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>140,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>90,68%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-11,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-5,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 7,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 7,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 4,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,25; 4,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-51,19; 1010,89</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-47,74; 743,15</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-84,37; 185,24</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-90,31; 292,14</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.15336608478543</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.56337070451845</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.7977614988629034</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.07975876942069374</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.570564066822223</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9394969640844298</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1401067642823783</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.01708990830180173</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-18,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-74,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>49,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6539738833681092</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.647133664557336</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.59229129879419</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.125448979898399</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.51819498050878</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4795445274482787</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8544251736657064</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.9143018704868818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-57,24; 9,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 15,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.421007073913461</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.011619104404406</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.174977353014659</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.0627050548073</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>11.18434543099676</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.003200093902607</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.912790827847946</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.104176497380411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +821,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>285,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>216,09%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>52,93%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.501298993917753</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.341799462114758</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-16.61794632825561</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.100679439630892</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7106712769234341</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3737085567880198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 7,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 6,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 4,07</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,72</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>44,17; 955,76</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 807,43</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-73,61; 167,32</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,02; 258,11</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-55.91793185650889</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.683089379271781</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.61608029369148</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.84001042080528</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.08550265192511</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.74908769871893</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.629422838374218</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.775794732170277</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.04818520363850318</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.746261501057337</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.478291761745266</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.303897011534671</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.008516178819264246</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5347195079868448</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.744977864385162</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.193402582149339</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.972173659427188</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.685474214245126</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.6968612615688481</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3394535379122302</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7151956921807827</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3785221865034429</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.491085042544293</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.392385516314704</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.160336759127479</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.741229308184633</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>11.5917734970012</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.294385816771884</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.700536699440565</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.620445531675269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1007,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
